--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N2">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q2">
-        <v>2.68306997112</v>
+        <v>22.891697213826</v>
       </c>
       <c r="R2">
-        <v>24.14762974008</v>
+        <v>206.025274924434</v>
       </c>
       <c r="S2">
-        <v>0.01183675946427537</v>
+        <v>0.06444363439752158</v>
       </c>
       <c r="T2">
-        <v>0.01183675946427537</v>
+        <v>0.0644436343975216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>145.797898</v>
       </c>
       <c r="O3">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P3">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q3">
-        <v>21.189100112136</v>
+        <v>80.394273138282</v>
       </c>
       <c r="R3">
-        <v>190.7019010092239</v>
+        <v>723.548458244538</v>
       </c>
       <c r="S3">
-        <v>0.09347884475301541</v>
+        <v>0.2263221943477745</v>
       </c>
       <c r="T3">
-        <v>0.09347884475301541</v>
+        <v>0.2263221943477745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N4">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O4">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P4">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q4">
-        <v>9.344759238144</v>
+        <v>42.623884821096</v>
       </c>
       <c r="R4">
-        <v>84.102833143296</v>
+        <v>383.614963389864</v>
       </c>
       <c r="S4">
-        <v>0.04122578559041559</v>
+        <v>0.1199927652526245</v>
       </c>
       <c r="T4">
-        <v>0.04122578559041559</v>
+        <v>0.1199927652526245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>3.866178</v>
       </c>
       <c r="I5">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J5">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N5">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O5">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P5">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q5">
-        <v>7.930673748386664</v>
+        <v>17.83378301985466</v>
       </c>
       <c r="R5">
-        <v>71.37606373547999</v>
+        <v>160.504047178692</v>
       </c>
       <c r="S5">
-        <v>0.03498733859337639</v>
+        <v>0.05020483112812232</v>
       </c>
       <c r="T5">
-        <v>0.0349873385933764</v>
+        <v>0.05020483112812232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>145.797898</v>
       </c>
       <c r="O6">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P6">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q6">
-        <v>62.63118063264932</v>
+        <v>62.63118063264933</v>
       </c>
       <c r="R6">
-        <v>563.6806256938438</v>
+        <v>563.6806256938439</v>
       </c>
       <c r="S6">
-        <v>0.2763067039219959</v>
+        <v>0.1763163678461481</v>
       </c>
       <c r="T6">
-        <v>0.2763067039219959</v>
+        <v>0.1763163678461481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N7">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O7">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P7">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q7">
-        <v>27.62143275153066</v>
+        <v>33.206149210448</v>
       </c>
       <c r="R7">
-        <v>248.592894763776</v>
+        <v>298.8553428940319</v>
       </c>
       <c r="S7">
-        <v>0.1218560302406305</v>
+        <v>0.09348039682156904</v>
       </c>
       <c r="T7">
-        <v>0.1218560302406305</v>
+        <v>0.09348039682156904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H8">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I8">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J8">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N8">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O8">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P8">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q8">
-        <v>6.449902974402221</v>
+        <v>12.25934487866355</v>
       </c>
       <c r="R8">
-        <v>58.04912676962</v>
+        <v>110.334103907972</v>
       </c>
       <c r="S8">
-        <v>0.0284546996156213</v>
+        <v>0.0345119338218645</v>
       </c>
       <c r="T8">
-        <v>0.02845469961562131</v>
+        <v>0.03451193382186451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H9">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I9">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J9">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>145.797898</v>
       </c>
       <c r="O9">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P9">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q9">
-        <v>50.93703902963177</v>
+        <v>43.05408687986711</v>
       </c>
       <c r="R9">
-        <v>458.4333512666859</v>
+        <v>387.486781918804</v>
       </c>
       <c r="S9">
-        <v>0.2247162710275779</v>
+        <v>0.1212038499499951</v>
       </c>
       <c r="T9">
-        <v>0.224716271027578</v>
+        <v>0.1212038499499951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H10">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I10">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J10">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N10">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O10">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P10">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q10">
-        <v>22.46411426237155</v>
+        <v>22.82665628543467</v>
       </c>
       <c r="R10">
-        <v>202.177028361344</v>
+        <v>205.439906568912</v>
       </c>
       <c r="S10">
-        <v>0.09910375799506024</v>
+        <v>0.06426053422058954</v>
       </c>
       <c r="T10">
-        <v>0.09910375799506026</v>
+        <v>0.06426053422058954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H11">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I11">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J11">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N11">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O11">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P11">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q11">
-        <v>1.245651277406666</v>
+        <v>2.745468905416222</v>
       </c>
       <c r="R11">
-        <v>11.21086149666</v>
+        <v>24.709220148746</v>
       </c>
       <c r="S11">
-        <v>0.005495374591694022</v>
+        <v>0.007728915542511493</v>
       </c>
       <c r="T11">
-        <v>0.005495374591694023</v>
+        <v>0.007728915542511493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H12">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I12">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J12">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>145.797898</v>
       </c>
       <c r="O12">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P12">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q12">
-        <v>9.837324373155331</v>
+        <v>9.641922790302443</v>
       </c>
       <c r="R12">
-        <v>88.53591935839798</v>
+        <v>86.777305112722</v>
       </c>
       <c r="S12">
-        <v>0.0433988094348827</v>
+        <v>0.02714348968463972</v>
       </c>
       <c r="T12">
-        <v>0.0433988094348827</v>
+        <v>0.02714348968463972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H13">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I13">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J13">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N13">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O13">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P13">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q13">
-        <v>4.338430010154666</v>
+        <v>5.112008485490666</v>
       </c>
       <c r="R13">
-        <v>39.045870091392</v>
+        <v>46.008076369416</v>
       </c>
       <c r="S13">
-        <v>0.01913962477145468</v>
+        <v>0.01439108698663974</v>
       </c>
       <c r="T13">
-        <v>0.01913962477145468</v>
+        <v>0.01439108698663974</v>
       </c>
     </row>
   </sheetData>
